--- a/Project 3 Requirments.xlsx
+++ b/Project 3 Requirments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -47,7 +47,7 @@
     <t>EECS 168 Lab 9 - Class</t>
   </si>
   <si>
-    <t>Code a class for a Circle in python with given attributes such as diameter, area, circumference, etc.</t>
+    <t>Code a class for a Circle in python with given attributes such as diameter, area, circumference, etc. The user can interact with the program to see how changing one spect of the code affects another through the use of methods</t>
   </si>
   <si>
     <t>EECS 581 Assignment 2 Easy AI</t>
@@ -188,6 +188,12 @@
     <t>Become familiar with Godot, take basic tutorials ect.</t>
   </si>
   <si>
+    <t>Create the GODOT Project and Upload to Github</t>
+  </si>
+  <si>
+    <t>Create a new game project in GODOT and upload it to Github so that it can be edited by other members of the group</t>
+  </si>
+  <si>
     <t>Create Spaceship Movement</t>
   </si>
   <si>
@@ -204,6 +210,21 @@
   </si>
   <si>
     <t>Detect when the asteriod hits the player (player then dies)</t>
+  </si>
+  <si>
+    <t>Create visuals for spaceship</t>
+  </si>
+  <si>
+    <t>Create the initial architecture document based off of Sprint 1</t>
+  </si>
+  <si>
+    <t>Create visuals for asteroids</t>
+  </si>
+  <si>
+    <t>Create the visuals for the asteroids that will act as obstacles for the player to avoid.</t>
+  </si>
+  <si>
+    <t>Create the Architecture Document</t>
   </si>
   <si>
     <t>Deliver Packages between 2 points</t>
@@ -224,6 +245,12 @@
     <t>Create asteriods with resources the player can collect for resources</t>
   </si>
   <si>
+    <t>Create resource asteroid, package, and base visuals</t>
+  </si>
+  <si>
+    <t>Create the visuals we will be using for these sprites</t>
+  </si>
+  <si>
     <t>Mini Map</t>
   </si>
   <si>
@@ -236,10 +263,16 @@
     <t>As the player moves, they use up fuel. If they run out of fuel they can't move. Additionally, as the spaceship gets less mass it should accelerate faster</t>
   </si>
   <si>
+    <t>Implement the system for upgrades</t>
+  </si>
+  <si>
+    <t>Implement an interface that would serve as the building block for allowing player upgrades</t>
+  </si>
+  <si>
     <t>Ship Upgrades</t>
   </si>
   <si>
-    <t>Allow the player to upgrade the ship (increase fuel ect)</t>
+    <t>Implement upgrades by affecting different variables when upgrades are purchased.</t>
   </si>
   <si>
     <t>Resource Management</t>
@@ -248,19 +281,49 @@
     <t>Allow the player to properly manage an interact with the varaibles that are affected by asteriod harvesting</t>
   </si>
   <si>
+    <t>Create menu graphics</t>
+  </si>
+  <si>
+    <t>Create all of the visuals for the menu</t>
+  </si>
+  <si>
+    <t>Oxygen Depletion</t>
+  </si>
+  <si>
+    <t>The player consumes oxygen and dies when they run out</t>
+  </si>
+  <si>
+    <t>Level design</t>
+  </si>
+  <si>
+    <t>Ensure that the level(s) are setup in a fun, fair, and egaging way with a sense of progression and challange</t>
+  </si>
+  <si>
     <t>Quest Manager/Log</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>The player consumes oxygen and dies when they run out</t>
+    <t xml:space="preserve">Allow the player to interact with a quest log manager to manage different tasks </t>
   </si>
   <si>
-    <t>Oxygen Depletion</t>
+    <t>Add additional side quests to put inside the quest manager</t>
   </si>
   <si>
-    <t>Allow the player to interact with a quest log manager to manage different tasks</t>
+    <t>Come up with additional tasks the player can accomplish outside of the main goals outlined in our current sheet.</t>
+  </si>
+  <si>
+    <t>Refine graphics</t>
+  </si>
+  <si>
+    <t>Revamp any graphics to ensure consistent artsyle and theme between all sprites</t>
+  </si>
+  <si>
+    <t>Refine the ship movement</t>
+  </si>
+  <si>
+    <t>Tweak values to how the ship controls if found that it clashes with the gameplay of the level design</t>
   </si>
   <si>
     <t>Testing and debugging</t>
@@ -273,6 +336,36 @@
   </si>
   <si>
     <t>Make sure the game is properly balanced and fun and fair to play</t>
+  </si>
+  <si>
+    <t>Sound Design</t>
+  </si>
+  <si>
+    <t>Add sound effects to the game such as thrusting, colissions, shooting, etc. and add background music</t>
+  </si>
+  <si>
+    <t>Save and Load system</t>
+  </si>
+  <si>
+    <t>Implement a save and load system that allows progress to be maintained after shutdown</t>
+  </si>
+  <si>
+    <t>Compile the game as an executable</t>
+  </si>
+  <si>
+    <t>Compile the game as an executable so that it can be run outside of the game engine itself</t>
+  </si>
+  <si>
+    <t>Create video showcasing our work</t>
+  </si>
+  <si>
+    <t>Make the video presenting how our game works, going through all the features in depth, making light amounts of video editing, etc.</t>
+  </si>
+  <si>
+    <t>Final Documentation</t>
+  </si>
+  <si>
+    <t>Create documentation of the program logic including diagrams and descriptions as supplementation</t>
   </si>
 </sst>
 </file>
@@ -380,9 +473,6 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -391,6 +481,9 @@
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28844,7 +28937,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="40.63"/>
+    <col customWidth="1" min="2" max="2" width="64.13"/>
     <col customWidth="1" min="6" max="6" width="110.63"/>
   </cols>
   <sheetData>
@@ -28929,7 +29022,7 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -28969,14 +29062,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>3.0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="10">
         <v>1.0</v>
@@ -29009,19 +29102,19 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="14">
-        <v>3.0</v>
+      <c r="C5" s="10">
+        <v>5.0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>1.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>1.0</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -29049,19 +29142,19 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="14">
-        <v>2.0</v>
+      <c r="C6" s="13">
+        <v>3.0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>1.0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>1.0</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -29089,20 +29182,20 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="12">
-        <v>7.0</v>
+      <c r="A7" s="10">
+        <v>6.0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="12">
-        <v>3.0</v>
+      <c r="C7" s="13">
+        <v>2.0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>1.0</v>
       </c>
-      <c r="E7" s="12">
-        <v>2.0</v>
+      <c r="E7" s="14">
+        <v>1.0</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>65</v>
@@ -29129,20 +29222,20 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="12">
-        <v>8.0</v>
+      <c r="A8" s="10">
+        <v>7.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>2.0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>1.0</v>
       </c>
-      <c r="E8" s="12">
-        <v>2.0</v>
+      <c r="E8" s="10">
+        <v>1.0</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>67</v>
@@ -29169,20 +29262,20 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="12">
-        <v>9.0</v>
+      <c r="A9" s="10">
+        <v>8.0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>2.0</v>
       </c>
-      <c r="D9" s="12">
-        <v>2.0</v>
+      <c r="D9" s="10">
+        <v>1.0</v>
       </c>
-      <c r="E9" s="12">
-        <v>2.0</v>
+      <c r="E9" s="10">
+        <v>1.0</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>69</v>
@@ -29209,23 +29302,23 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="12">
-        <v>10.0</v>
+      <c r="A10" s="10">
+        <v>9.0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>5.0</v>
       </c>
-      <c r="D10" s="12">
-        <v>2.0</v>
+      <c r="D10" s="10">
+        <v>1.0</v>
       </c>
-      <c r="E10" s="12">
-        <v>3.0</v>
+      <c r="E10" s="10">
+        <v>1.0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -29249,23 +29342,23 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="12">
-        <v>11.0</v>
+      <c r="A11" s="10">
+        <v>10.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="15">
         <v>2.0</v>
       </c>
-      <c r="D11" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>3.0</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -29289,23 +29382,23 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="12">
-        <v>12.0</v>
+      <c r="A12" s="10">
+        <v>11.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="15">
         <v>1.0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="15">
         <v>2.0</v>
       </c>
-      <c r="E12" s="12">
-        <v>3.0</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -29329,23 +29422,23 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="12">
-        <v>13.0</v>
+      <c r="A13" s="10">
+        <v>12.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
-      <c r="C13" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="15">
         <v>2.0</v>
       </c>
-      <c r="E13" s="12">
-        <v>3.0</v>
+      <c r="D13" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2.0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -29369,23 +29462,23 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="12">
-        <v>14.0</v>
+      <c r="A14" s="10">
+        <v>13.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
-      <c r="C14" s="12">
-        <v>5.0</v>
+      <c r="C14" s="15">
+        <v>3.0</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>2.0</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>79</v>
+      <c r="E14" s="15">
+        <v>2.0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -29409,23 +29502,23 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="12">
-        <v>15.0</v>
+      <c r="A15" s="10">
+        <v>14.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
-      <c r="C15" s="12">
-        <v>1.0</v>
+      <c r="C15" s="15">
+        <v>5.0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="15">
         <v>3.0</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -29449,23 +29542,23 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
-      <c r="C16" s="12">
-        <v>8.0</v>
+      <c r="C16" s="15">
+        <v>2.0</v>
       </c>
-      <c r="D16" s="12">
-        <v>1.0</v>
+      <c r="D16" s="15">
+        <v>2.0</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>79</v>
+      <c r="E16" s="15">
+        <v>3.0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -29489,23 +29582,23 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="12">
-        <v>15.0</v>
+      <c r="A17" s="10">
+        <v>16.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="15">
         <v>2.0</v>
       </c>
-      <c r="D17" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>79</v>
+      <c r="E17" s="15">
+        <v>3.0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -29529,12 +29622,24 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -29557,12 +29662,24 @@
       <c r="Z18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -29585,12 +29702,24 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="10">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -29613,12 +29742,24 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -29641,12 +29782,24 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -29669,12 +29822,24 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -29697,12 +29862,24 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -29725,12 +29902,24 @@
       <c r="Z24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -29753,12 +29942,24 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -29781,12 +29982,24 @@
       <c r="Z26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="10">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -29809,12 +30022,24 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="10">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -29837,12 +30062,24 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="10">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -29865,12 +30102,24 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -29893,12 +30142,24 @@
       <c r="Z30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -29921,12 +30182,24 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="10">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -29949,12 +30222,24 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -57024,6 +57309,146 @@
       <c r="Y999" s="9"/>
       <c r="Z999" s="9"/>
     </row>
+    <row r="1000">
+      <c r="A1000" s="9"/>
+      <c r="B1000" s="9"/>
+      <c r="C1000" s="9"/>
+      <c r="D1000" s="9"/>
+      <c r="E1000" s="9"/>
+      <c r="F1000" s="9"/>
+      <c r="G1000" s="9"/>
+      <c r="H1000" s="9"/>
+      <c r="I1000" s="9"/>
+      <c r="J1000" s="9"/>
+      <c r="K1000" s="9"/>
+      <c r="L1000" s="9"/>
+      <c r="M1000" s="9"/>
+      <c r="N1000" s="9"/>
+      <c r="O1000" s="9"/>
+      <c r="P1000" s="9"/>
+      <c r="Q1000" s="9"/>
+      <c r="R1000" s="9"/>
+      <c r="S1000" s="9"/>
+      <c r="T1000" s="9"/>
+      <c r="U1000" s="9"/>
+      <c r="V1000" s="9"/>
+      <c r="W1000" s="9"/>
+      <c r="X1000" s="9"/>
+      <c r="Y1000" s="9"/>
+      <c r="Z1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="9"/>
+      <c r="I1001" s="9"/>
+      <c r="J1001" s="9"/>
+      <c r="K1001" s="9"/>
+      <c r="L1001" s="9"/>
+      <c r="M1001" s="9"/>
+      <c r="N1001" s="9"/>
+      <c r="O1001" s="9"/>
+      <c r="P1001" s="9"/>
+      <c r="Q1001" s="9"/>
+      <c r="R1001" s="9"/>
+      <c r="S1001" s="9"/>
+      <c r="T1001" s="9"/>
+      <c r="U1001" s="9"/>
+      <c r="V1001" s="9"/>
+      <c r="W1001" s="9"/>
+      <c r="X1001" s="9"/>
+      <c r="Y1001" s="9"/>
+      <c r="Z1001" s="9"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="9"/>
+      <c r="B1002" s="9"/>
+      <c r="C1002" s="9"/>
+      <c r="D1002" s="9"/>
+      <c r="E1002" s="9"/>
+      <c r="F1002" s="9"/>
+      <c r="G1002" s="9"/>
+      <c r="H1002" s="9"/>
+      <c r="I1002" s="9"/>
+      <c r="J1002" s="9"/>
+      <c r="K1002" s="9"/>
+      <c r="L1002" s="9"/>
+      <c r="M1002" s="9"/>
+      <c r="N1002" s="9"/>
+      <c r="O1002" s="9"/>
+      <c r="P1002" s="9"/>
+      <c r="Q1002" s="9"/>
+      <c r="R1002" s="9"/>
+      <c r="S1002" s="9"/>
+      <c r="T1002" s="9"/>
+      <c r="U1002" s="9"/>
+      <c r="V1002" s="9"/>
+      <c r="W1002" s="9"/>
+      <c r="X1002" s="9"/>
+      <c r="Y1002" s="9"/>
+      <c r="Z1002" s="9"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="9"/>
+      <c r="B1003" s="9"/>
+      <c r="C1003" s="9"/>
+      <c r="D1003" s="9"/>
+      <c r="E1003" s="9"/>
+      <c r="F1003" s="9"/>
+      <c r="G1003" s="9"/>
+      <c r="H1003" s="9"/>
+      <c r="I1003" s="9"/>
+      <c r="J1003" s="9"/>
+      <c r="K1003" s="9"/>
+      <c r="L1003" s="9"/>
+      <c r="M1003" s="9"/>
+      <c r="N1003" s="9"/>
+      <c r="O1003" s="9"/>
+      <c r="P1003" s="9"/>
+      <c r="Q1003" s="9"/>
+      <c r="R1003" s="9"/>
+      <c r="S1003" s="9"/>
+      <c r="T1003" s="9"/>
+      <c r="U1003" s="9"/>
+      <c r="V1003" s="9"/>
+      <c r="W1003" s="9"/>
+      <c r="X1003" s="9"/>
+      <c r="Y1003" s="9"/>
+      <c r="Z1003" s="9"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="9"/>
+      <c r="B1004" s="9"/>
+      <c r="C1004" s="9"/>
+      <c r="D1004" s="9"/>
+      <c r="E1004" s="9"/>
+      <c r="F1004" s="9"/>
+      <c r="G1004" s="9"/>
+      <c r="H1004" s="9"/>
+      <c r="I1004" s="9"/>
+      <c r="J1004" s="9"/>
+      <c r="K1004" s="9"/>
+      <c r="L1004" s="9"/>
+      <c r="M1004" s="9"/>
+      <c r="N1004" s="9"/>
+      <c r="O1004" s="9"/>
+      <c r="P1004" s="9"/>
+      <c r="Q1004" s="9"/>
+      <c r="R1004" s="9"/>
+      <c r="S1004" s="9"/>
+      <c r="T1004" s="9"/>
+      <c r="U1004" s="9"/>
+      <c r="V1004" s="9"/>
+      <c r="W1004" s="9"/>
+      <c r="X1004" s="9"/>
+      <c r="Y1004" s="9"/>
+      <c r="Z1004" s="9"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Project 3 Requirments.xlsx
+++ b/Project 3 Requirments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -215,7 +215,7 @@
     <t>Create visuals for spaceship</t>
   </si>
   <si>
-    <t>Create the initial architecture document based off of Sprint 1</t>
+    <t>Create the visuals for the player</t>
   </si>
   <si>
     <t>Create visuals for asteroids</t>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Create the Architecture Document</t>
+  </si>
+  <si>
+    <t>Create the initial architecture document based off of Sprint 1</t>
   </si>
   <si>
     <t>Deliver Packages between 2 points</t>
@@ -243,6 +246,12 @@
   </si>
   <si>
     <t>Create asteriods with resources the player can collect for resources</t>
+  </si>
+  <si>
+    <t>Camera Movement</t>
+  </si>
+  <si>
+    <t>Have the camera follow the player around and keep them on screen</t>
   </si>
   <si>
     <t>Create resource asteroid, package, and base visuals</t>
@@ -29318,7 +29327,7 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -29346,7 +29355,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="15">
         <v>3.0</v>
@@ -29358,7 +29367,7 @@
         <v>2.0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -29386,7 +29395,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="15">
         <v>2.0</v>
@@ -29398,7 +29407,7 @@
         <v>2.0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -29426,7 +29435,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="15">
         <v>2.0</v>
@@ -29438,7 +29447,7 @@
         <v>2.0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -29466,7 +29475,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="15">
         <v>3.0</v>
@@ -29478,7 +29487,7 @@
         <v>2.0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -29506,19 +29515,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" s="15">
         <v>2.0</v>
       </c>
       <c r="E15" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -29546,10 +29555,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="15">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" s="15">
         <v>2.0</v>
@@ -29558,7 +29567,7 @@
         <v>3.0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -29586,10 +29595,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="15">
         <v>2.0</v>
@@ -29598,7 +29607,7 @@
         <v>3.0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -29626,7 +29635,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="15">
         <v>1.0</v>
@@ -29638,7 +29647,7 @@
         <v>3.0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -29666,7 +29675,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="15">
         <v>1.0</v>
@@ -29678,7 +29687,7 @@
         <v>3.0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -29706,10 +29715,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="15">
         <v>2.0</v>
@@ -29718,7 +29727,7 @@
         <v>3.0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -29746,10 +29755,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="15">
         <v>2.0</v>
@@ -29758,7 +29767,7 @@
         <v>3.0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -29786,10 +29795,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="15">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="15">
         <v>2.0</v>
@@ -29798,7 +29807,7 @@
         <v>3.0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -29826,7 +29835,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="15">
         <v>5.0</v>
@@ -29834,8 +29843,8 @@
       <c r="D23" s="15">
         <v>2.0</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>96</v>
+      <c r="E23" s="15">
+        <v>3.0</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>97</v>
@@ -29869,16 +29878,16 @@
         <v>98</v>
       </c>
       <c r="C24" s="15">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" s="15">
         <v>2.0</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -29906,19 +29915,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="15">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" s="15">
         <v>2.0</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -29946,19 +29955,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D26" s="15">
         <v>2.0</v>
       </c>
-      <c r="D26" s="15">
-        <v>1.0</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -29986,19 +29995,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="15">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27" s="15">
         <v>1.0</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -30026,19 +30035,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="15">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D28" s="15">
         <v>1.0</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -30066,19 +30075,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -30106,19 +30115,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" s="15">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D30" s="15">
         <v>2.0</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -30146,19 +30155,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="15">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -30186,19 +30195,19 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="15">
         <v>1.0</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -30226,19 +30235,19 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" s="15">
         <v>1.0</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -30262,12 +30271,24 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -57449,6 +57470,34 @@
       <c r="Y1004" s="9"/>
       <c r="Z1004" s="9"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="9"/>
+      <c r="B1005" s="9"/>
+      <c r="C1005" s="9"/>
+      <c r="D1005" s="9"/>
+      <c r="E1005" s="9"/>
+      <c r="F1005" s="9"/>
+      <c r="G1005" s="9"/>
+      <c r="H1005" s="9"/>
+      <c r="I1005" s="9"/>
+      <c r="J1005" s="9"/>
+      <c r="K1005" s="9"/>
+      <c r="L1005" s="9"/>
+      <c r="M1005" s="9"/>
+      <c r="N1005" s="9"/>
+      <c r="O1005" s="9"/>
+      <c r="P1005" s="9"/>
+      <c r="Q1005" s="9"/>
+      <c r="R1005" s="9"/>
+      <c r="S1005" s="9"/>
+      <c r="T1005" s="9"/>
+      <c r="U1005" s="9"/>
+      <c r="V1005" s="9"/>
+      <c r="W1005" s="9"/>
+      <c r="X1005" s="9"/>
+      <c r="Y1005" s="9"/>
+      <c r="Z1005" s="9"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
